--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>pal</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -5292,6 +5292,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>SUGAR_CONFECT_11</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5337,6 +5342,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>CAKES_12</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5382,6 +5392,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>FRUITVEG_JUICE_1301</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5427,6 +5442,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>SOFTDRINKS_1302</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5472,6 +5492,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ART_SWEETENER_170201</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5517,6 +5542,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>VEGETABLES_02</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5562,6 +5592,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LEGUMES_TOT_03</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5607,6 +5642,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FRUITS_TOT_04</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5652,6 +5692,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>RED_MEAT_0701</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5697,6 +5742,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>PROCMEAT_0704</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5742,6 +5792,11 @@
           <t>EPICP_P2</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>COFFEE_130301</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>direct_mapping</t>
@@ -5785,6 +5840,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>EPICP_P2</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>TEA_130302</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>recode</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZT3;ZR3;PF3</t>
+          <t>zt3;zr3;pf3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(ZT3*1) + (ZR3*5) + (PF3*5)</t>
+          <t>(zt3*1) + (zr3*5) + (pf3*5)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>age0 + (ysmkces0- format(as.Date(d_recrui, format="%d/%m/%Y"),"%Y")</t>
+          <t>age0 + (as.numeric(as.Date(paste0(ysmkces0, "-06-30")))-as.numeric(d_recrui))/365.25</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2430,8 +2430,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>age0 + ((dd_incmi - d_recrui)/365.25)_x000D_
-age0 + ((dd_incstroke - d_recrui)/365.25)</t>
+          <t>min(age0 + ((dd_incmi - d_recrui)/365.25),age0 + ((dd_incstroke - d_recrui)/365.25), na.rm = TRUE)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2589,7 +2588,7 @@
           <t>case_when(_x000D_
 casemi_fup5 %in% c(0) ~ 0L,_x000D_
 casemi_fup5 %in% c(2,5) ~ 1L,_x000D_
-TRUE ~ NA_integer_))</t>
+TRUE ~ NA_integer_)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3168,7 +3167,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>age0 + ((dd_inchf - d_recrui/365.25)</t>
+          <t>age0 + (as.numeric(as.Date(paste0(dd_inchf, "-06-30")))-as.numeric(d_recrui))/365.25</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3431,7 +3430,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>age0 + ((ddinccanc - d_recrui)/365.25)</t>
+          <t>age0 + (as.numeric(as.Date(paste0(dd_inccanc, "-06-30")))-as.numeric(d_recrui))/365.25</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>age0 + (as.numeric(as.Date(paste0(dd_inchf, "-06-30")))-as.numeric(d_recrui))/365.25</t>
+          <t>age0 + ((dd_inchf - d_recrui)/365.25)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>age0 + (as.numeric(as.Date(paste0(dd_inccanc, "-06-30")))-as.numeric(d_recrui))/365.25</t>
+          <t>age0 + ((dd_inccanc - d_recrui)/365.25)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -957,7 +957,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(zt3*1) + (zr3*5) + (pf3*5)</t>
+          <t>sum((zt3*1), (zr3*5),(pf3*5), na.rm = TRUE)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B0514-2251-46E3-AD6E-A36182738649}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAAE62-FD66-4EAF-8F35-5B4FB54EB13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,10 +1096,10 @@
     <t>1(FFQ)</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>rowwise() %&gt;% TOBACCO_D = sum((zt3*1), (zr3*5),(pf3*5), na.rm = TRUE))</t>
+    <t>zt3;zr3pf3</t>
+  </si>
+  <si>
+    <t>rowSums(select(.,zt3*1,zr3*5,pf3*5), na.rm = TRUE)</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1871,10 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
         <v>348</v>

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAAE62-FD66-4EAF-8F35-5B4FB54EB13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831F2B1-3E6E-4EEB-A4AE-747E1F10CADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,10 +1096,16 @@
     <t>1(FFQ)</t>
   </si>
   <si>
-    <t>zt3;zr3pf3</t>
-  </si>
-  <si>
-    <t>rowSums(select(.,zt3*1,zr3*5,pf3*5), na.rm = TRUE)</t>
+    <t>zt3;zr3;pf3</t>
+  </si>
+  <si>
+    <t>ifelse(is.na(zt3),
+                      ifelse(is.na(zr3), 
+                             ifelse(is.na(pf3),0,pf3*5),
+                             ifelse(is.na(pf3),zr3*5,zr3*5+pf3*5)),
+                      ifelse(is.na(zr3),
+                             ifelse(is.na(pf3),zt3*1,zt3*1+pf3*5),
+                             ifelse(is.na(pf3),zt3*1+zr3*5, zt3*1+ zr3*5 + pf3*5))))</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1876,7 +1885,7 @@
       <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>348</v>
       </c>
       <c r="J12" t="s">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831F2B1-3E6E-4EEB-A4AE-747E1F10CADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9FC86-702D-4473-9324-9C25F33F13BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,7 +1105,7 @@
                              ifelse(is.na(pf3),zr3*5,zr3*5+pf3*5)),
                       ifelse(is.na(zr3),
                              ifelse(is.na(pf3),zt3*1,zt3*1+pf3*5),
-                             ifelse(is.na(pf3),zt3*1+zr3*5, zt3*1+ zr3*5 + pf3*5))))</t>
+                             ifelse(is.na(pf3),zt3*1+zr3*5, zt3*1+ zr3*5 + pf3*5)))</t>
   </si>
 </sst>
 </file>
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB9FC86-702D-4473-9324-9C25F33F13BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33428C2B-4A63-48CD-948D-F629972D99CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="347">
   <si>
     <t>index</t>
   </si>
@@ -197,12 +197,6 @@
     <t>Age at time of quitting smoking [years]</t>
   </si>
   <si>
-    <t>age0;d_recrui;ysmkces0</t>
-  </si>
-  <si>
-    <t>age0 + (as.numeric(as.Date(paste0(ysmkces0, "-06-30")))-as.numeric(d_recrui))/365.25</t>
-  </si>
-  <si>
     <t>MED_SUPPL</t>
   </si>
   <si>
@@ -447,11 +441,6 @@
   </si>
   <si>
     <t>CVD event during follow-up</t>
-  </si>
-  <si>
-    <t>case_when(_x000D_
-casemi_fup5 %in% c(0) | casestroke_fup5 %in% c(0) | casehf_fup5 %in% c(0) ~ 0L,_x000D_
-casemi_fup5 %in% c(2,5) | casestroke_fup5 %in% c(2,6) | casehf_fup5 == 2 ~ 1L, TRUE ~ NA_integer_)</t>
   </si>
   <si>
     <t>0=not diseased; 1= prevalent; 2=incident; 3= incident I15 (Sekundärhypertonie, aufgrund einer anderen Erkrankung); 5=I252 old MI, date of diagnosis unknown; 6=I64Y old stroke, date of diagnosis unknown; 8=incident DCO; 9= incident (not yet verified); 1, 3, 8 (nur Totenschein, nicht verifiziert; aber für Mortalitätsanalyse verwendbar), 9</t>
@@ -1106,6 +1095,11 @@
                       ifelse(is.na(zr3),
                              ifelse(is.na(pf3),zt3*1,zt3*1+pf3*5),
                              ifelse(is.na(pf3),zt3*1+zr3*5, zt3*1+ zr3*5 + pf3*5)))</t>
+  </si>
+  <si>
+    <t>case_when(
+casemi_fup5 %in% c(0) | casestroke_fup5 %in% c(0) | casehf_fup5 %in% c(0) ~ 0L,
+casemi_fup5 %in% c(2,5) | casestroke_fup5 %in% c(2,6) | casehf_fup5 == 2 ~ 1L, TRUE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,6 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1497,14 +1492,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" customWidth="1"/>
     <col min="9" max="9" width="112.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1863,7 +1862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1880,13 +1879,13 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>348</v>
+      <c r="H12" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1912,13 +1911,13 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -1932,10 +1931,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -1944,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
@@ -1964,10 +1963,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1976,22 +1975,22 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
         <v>64</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>65</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,10 +1998,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2011,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -2031,10 +2030,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2043,7 +2042,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -2063,10 +2062,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2075,16 +2074,16 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2098,19 +2097,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
@@ -2130,19 +2129,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -2162,19 +2161,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2194,25 +2193,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -2226,19 +2225,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
         <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -2258,10 +2257,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2270,13 +2269,13 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -2290,10 +2289,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2302,13 +2301,13 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -2322,10 +2321,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2334,13 +2333,13 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
@@ -2354,10 +2353,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2366,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -2386,10 +2385,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2418,10 +2417,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2450,10 +2449,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2482,10 +2481,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2514,10 +2513,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2546,10 +2545,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2578,10 +2577,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2610,10 +2609,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2642,10 +2641,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2674,10 +2673,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2706,10 +2705,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2718,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -2738,10 +2737,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2750,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -2765,15 +2764,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2782,16 +2781,16 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
       </c>
-      <c r="H40" t="s">
-        <v>138</v>
+      <c r="H40" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="I40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -2805,10 +2804,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
@@ -2817,13 +2816,13 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
         <v>53</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -2837,10 +2836,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2858,7 +2857,7 @@
         <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J42" t="s">
         <v>39</v>
@@ -2872,10 +2871,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -2904,10 +2903,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2916,16 +2915,16 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -2939,10 +2938,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -2951,13 +2950,13 @@
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G45" t="s">
         <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -2971,10 +2970,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2983,16 +2982,16 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
@@ -3006,10 +3005,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -3018,13 +3017,13 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G47" t="s">
         <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
@@ -3038,10 +3037,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3050,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
@@ -3059,7 +3058,7 @@
         <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -3073,10 +3072,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -3085,13 +3084,13 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
@@ -3105,10 +3104,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3117,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G50" t="s">
         <v>21</v>
@@ -3137,10 +3136,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -3149,13 +3148,13 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
       </c>
       <c r="H51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -3169,10 +3168,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3181,16 +3180,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
@@ -3204,10 +3203,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
@@ -3216,13 +3215,13 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G53" t="s">
         <v>53</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -3236,10 +3235,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3248,13 +3247,13 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
@@ -3268,10 +3267,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D55" t="s">
         <v>24</v>
@@ -3280,13 +3279,13 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G55" t="s">
         <v>53</v>
       </c>
       <c r="H55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -3300,10 +3299,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3312,16 +3311,16 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -3335,10 +3334,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -3347,13 +3346,13 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G57" t="s">
         <v>53</v>
       </c>
       <c r="H57" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -3367,10 +3366,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3379,7 +3378,7 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G58" t="s">
         <v>21</v>
@@ -3388,7 +3387,7 @@
         <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -3402,13 +3401,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -3434,10 +3433,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -3446,13 +3445,13 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G60" t="s">
         <v>53</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J60" t="s">
         <v>39</v>
@@ -3466,10 +3465,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3478,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I61" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -3501,10 +3500,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
@@ -3513,7 +3512,7 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G62" t="s">
         <v>21</v>
@@ -3533,10 +3532,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3554,7 +3553,7 @@
         <v>39</v>
       </c>
       <c r="I63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J63" t="s">
         <v>39</v>
@@ -3568,10 +3567,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3589,7 +3588,7 @@
         <v>39</v>
       </c>
       <c r="I64" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J64" t="s">
         <v>39</v>
@@ -3603,10 +3602,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -3615,7 +3614,7 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
@@ -3635,10 +3634,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
@@ -3647,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G66" t="s">
         <v>21</v>
@@ -3667,10 +3666,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -3679,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G67" t="s">
         <v>21</v>
@@ -3699,10 +3698,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -3731,10 +3730,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -3763,10 +3762,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D70" t="s">
         <v>24</v>
@@ -3775,7 +3774,7 @@
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G70" t="s">
         <v>21</v>
@@ -3795,10 +3794,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -3807,7 +3806,7 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G71" t="s">
         <v>21</v>
@@ -3827,10 +3826,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
@@ -3839,7 +3838,7 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G72" t="s">
         <v>21</v>
@@ -3859,10 +3858,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D73" t="s">
         <v>24</v>
@@ -3871,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G73" t="s">
         <v>21</v>
@@ -3891,10 +3890,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -3923,10 +3922,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -3955,10 +3954,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C76" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -3987,10 +3986,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -4019,10 +4018,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
         <v>24</v>
@@ -4031,7 +4030,7 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G78" t="s">
         <v>21</v>
@@ -4051,10 +4050,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D79" t="s">
         <v>24</v>
@@ -4063,16 +4062,16 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G79" t="s">
         <v>53</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -4086,10 +4085,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
@@ -4098,7 +4097,7 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G80" t="s">
         <v>21</v>
@@ -4118,10 +4117,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D81" t="s">
         <v>24</v>
@@ -4130,7 +4129,7 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G81" t="s">
         <v>21</v>
@@ -4150,10 +4149,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D82" t="s">
         <v>24</v>
@@ -4162,7 +4161,7 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G82" t="s">
         <v>21</v>
@@ -4182,10 +4181,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D83" t="s">
         <v>24</v>
@@ -4194,7 +4193,7 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G83" t="s">
         <v>21</v>
@@ -4214,10 +4213,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -4226,7 +4225,7 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G84" t="s">
         <v>21</v>
@@ -4246,10 +4245,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
@@ -4258,7 +4257,7 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G85" t="s">
         <v>21</v>
@@ -4278,10 +4277,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D86" t="s">
         <v>24</v>
@@ -4290,7 +4289,7 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G86" t="s">
         <v>21</v>
@@ -4310,10 +4309,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -4322,7 +4321,7 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G87" t="s">
         <v>21</v>
@@ -4342,10 +4341,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
@@ -4354,13 +4353,13 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G88" t="s">
         <v>53</v>
       </c>
       <c r="H88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
@@ -4374,10 +4373,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -4406,10 +4405,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -4438,10 +4437,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
         <v>24</v>
@@ -4450,7 +4449,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
@@ -4470,10 +4469,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C92" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -4482,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
@@ -4502,10 +4501,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -4534,10 +4533,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -4566,10 +4565,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -4578,7 +4577,7 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
@@ -4598,10 +4597,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -4610,13 +4609,13 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G96" t="s">
         <v>53</v>
       </c>
       <c r="H96" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J96" t="s">
         <v>17</v>
@@ -4630,10 +4629,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C97" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -4642,7 +4641,7 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G97" t="s">
         <v>21</v>
@@ -4662,10 +4661,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -4674,7 +4673,7 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G98" t="s">
         <v>21</v>
@@ -4694,10 +4693,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C99" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -4706,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G99" t="s">
         <v>21</v>
@@ -4726,10 +4725,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -4738,7 +4737,7 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G100" t="s">
         <v>21</v>
@@ -4758,10 +4757,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C101" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -4770,7 +4769,7 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G101" t="s">
         <v>21</v>
@@ -4790,10 +4789,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C102" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -4802,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G102" t="s">
         <v>21</v>
@@ -4822,10 +4821,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -4834,7 +4833,7 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G103" t="s">
         <v>21</v>
@@ -4843,10 +4842,10 @@
         <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K103" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4854,10 +4853,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -4866,7 +4865,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G104" t="s">
         <v>21</v>
@@ -4886,10 +4885,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -4898,7 +4897,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G105" t="s">
         <v>21</v>
@@ -4918,10 +4917,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C106" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -4930,7 +4929,7 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G106" t="s">
         <v>21</v>
@@ -4950,10 +4949,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -4962,7 +4961,7 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G107" t="s">
         <v>21</v>
@@ -4982,10 +4981,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -4994,7 +4993,7 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G108" t="s">
         <v>21</v>
@@ -5014,10 +5013,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5026,16 +5025,16 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
+        <v>340</v>
+      </c>
+      <c r="G109" t="s">
+        <v>341</v>
+      </c>
+      <c r="H109" t="s">
+        <v>342</v>
+      </c>
+      <c r="I109" t="s">
         <v>343</v>
-      </c>
-      <c r="G109" t="s">
-        <v>344</v>
-      </c>
-      <c r="H109" t="s">
-        <v>345</v>
-      </c>
-      <c r="I109" t="s">
-        <v>346</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33428C2B-4A63-48CD-948D-F629972D99CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18FCF0-7573-441E-BA6C-34BA52F680BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>radmeno</t>
   </si>
   <si>
-    <t>recode(0=3; 1=0; 2=1; 9=NA)</t>
-  </si>
-  <si>
     <t>no distinction between pre- and perimenopausal possible, hence this was mapped to premenopausal category in harmonized variable</t>
   </si>
   <si>
@@ -1100,6 +1097,9 @@
     <t>case_when(
 casemi_fup5 %in% c(0) | casestroke_fup5 %in% c(0) | casehf_fup5 %in% c(0) ~ 0L,
 casemi_fup5 %in% c(2,5) | casestroke_fup5 %in% c(2,6) | casehf_fup5 == 2 ~ 1L, TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>recode(0=3; 1=0; 2=1; 9=NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,13 +1879,13 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1981,16 +1981,16 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15" t="s">
         <v>62</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>63</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>64</v>
-      </c>
-      <c r="K15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1998,10 +1998,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2010,7 +2010,7 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -2030,10 +2030,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -2042,7 +2042,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -2062,10 +2062,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -2074,16 +2074,16 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>53</v>
       </c>
       <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s">
         <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>76</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2097,19 +2097,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
         <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
       </c>
       <c r="G19" t="s">
         <v>21</v>
@@ -2129,19 +2129,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -2161,19 +2161,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -2193,25 +2193,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>88</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -2225,19 +2225,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -2257,10 +2257,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -2269,13 +2269,13 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -2289,10 +2289,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -2301,13 +2301,13 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -2321,10 +2321,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -2333,13 +2333,13 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
@@ -2353,10 +2353,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
         <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -2365,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -2385,10 +2385,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
         <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -2417,10 +2417,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
         <v>110</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2449,10 +2449,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
         <v>112</v>
-      </c>
-      <c r="C30" t="s">
-        <v>113</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -2481,10 +2481,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
         <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -2513,10 +2513,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
         <v>116</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -2545,10 +2545,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
         <v>118</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
@@ -2577,10 +2577,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
         <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -2609,10 +2609,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
         <v>122</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -2641,10 +2641,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
         <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2673,10 +2673,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
         <v>126</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -2705,10 +2705,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
         <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2717,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -2737,10 +2737,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
         <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -2749,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -2769,10 +2769,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
         <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>135</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2781,16 +2781,16 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -2804,25 +2804,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
         <v>137</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
         <v>138</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>139</v>
       </c>
       <c r="G41" t="s">
         <v>53</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -2836,10 +2836,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -2857,7 +2857,7 @@
         <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J42" t="s">
         <v>39</v>
@@ -2871,10 +2871,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
         <v>144</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
@@ -2903,10 +2903,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
         <v>146</v>
-      </c>
-      <c r="C44" t="s">
-        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -2915,16 +2915,16 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
       </c>
       <c r="H44" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" t="s">
         <v>149</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -2938,25 +2938,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
         <v>152</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>153</v>
       </c>
       <c r="G45" t="s">
         <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -2970,10 +2970,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
         <v>155</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2982,16 +2982,16 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
       </c>
       <c r="H46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" t="s">
         <v>158</v>
-      </c>
-      <c r="I46" t="s">
-        <v>159</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
@@ -3005,25 +3005,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s">
         <v>160</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
         <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>162</v>
       </c>
       <c r="G47" t="s">
         <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
@@ -3037,10 +3037,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
         <v>164</v>
-      </c>
-      <c r="C48" t="s">
-        <v>165</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3049,16 +3049,16 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
         <v>166</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" t="s">
-        <v>167</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -3072,11 +3072,11 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
         <v>168</v>
       </c>
-      <c r="C49" t="s">
-        <v>169</v>
-      </c>
       <c r="D49" t="s">
         <v>24</v>
       </c>
@@ -3084,13 +3084,13 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
@@ -3104,10 +3104,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" t="s">
         <v>170</v>
-      </c>
-      <c r="C50" t="s">
-        <v>171</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3116,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
         <v>21</v>
@@ -3136,11 +3136,11 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" t="s">
         <v>173</v>
       </c>
-      <c r="C51" t="s">
-        <v>174</v>
-      </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
@@ -3148,13 +3148,13 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51" t="s">
         <v>53</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -3168,10 +3168,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
         <v>175</v>
-      </c>
-      <c r="C52" t="s">
-        <v>176</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
@@ -3180,16 +3180,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
       </c>
       <c r="H52" t="s">
+        <v>176</v>
+      </c>
+      <c r="I52" t="s">
         <v>177</v>
-      </c>
-      <c r="I52" t="s">
-        <v>178</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
@@ -3203,25 +3203,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
         <v>179</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
         <v>180</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>181</v>
       </c>
       <c r="G53" t="s">
         <v>53</v>
       </c>
       <c r="H53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -3235,10 +3235,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
         <v>183</v>
-      </c>
-      <c r="C54" t="s">
-        <v>184</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3247,13 +3247,13 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
@@ -3267,25 +3267,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
         <v>187</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
         <v>188</v>
-      </c>
-      <c r="D55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>189</v>
       </c>
       <c r="G55" t="s">
         <v>53</v>
       </c>
       <c r="H55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -3299,10 +3299,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
         <v>191</v>
-      </c>
-      <c r="C56" t="s">
-        <v>192</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
@@ -3311,16 +3311,16 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
       </c>
       <c r="H56" t="s">
+        <v>192</v>
+      </c>
+      <c r="I56" t="s">
         <v>193</v>
-      </c>
-      <c r="I56" t="s">
-        <v>194</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -3334,25 +3334,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" t="s">
         <v>195</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
         <v>196</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>197</v>
       </c>
       <c r="G57" t="s">
         <v>53</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -3366,10 +3366,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
         <v>199</v>
-      </c>
-      <c r="C58" t="s">
-        <v>200</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -3378,16 +3378,16 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
         <v>201</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" t="s">
-        <v>202</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -3401,13 +3401,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" t="s">
         <v>203</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>204</v>
-      </c>
-      <c r="D59" t="s">
-        <v>205</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -3433,25 +3433,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" t="s">
         <v>206</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
         <v>207</v>
-      </c>
-      <c r="D60" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>208</v>
       </c>
       <c r="G60" t="s">
         <v>53</v>
       </c>
       <c r="H60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J60" t="s">
         <v>39</v>
@@ -3465,10 +3465,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
         <v>210</v>
-      </c>
-      <c r="C61" t="s">
-        <v>211</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -3477,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
       </c>
       <c r="H61" t="s">
+        <v>212</v>
+      </c>
+      <c r="I61" t="s">
         <v>213</v>
-      </c>
-      <c r="I61" t="s">
-        <v>214</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -3500,19 +3500,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
         <v>215</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
         <v>216</v>
-      </c>
-      <c r="D62" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>217</v>
       </c>
       <c r="G62" t="s">
         <v>21</v>
@@ -3532,10 +3532,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" t="s">
         <v>218</v>
-      </c>
-      <c r="C63" t="s">
-        <v>219</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -3553,7 +3553,7 @@
         <v>39</v>
       </c>
       <c r="I63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J63" t="s">
         <v>39</v>
@@ -3567,10 +3567,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
         <v>221</v>
-      </c>
-      <c r="C64" t="s">
-        <v>222</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -3588,7 +3588,7 @@
         <v>39</v>
       </c>
       <c r="I64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J64" t="s">
         <v>39</v>
@@ -3602,19 +3602,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" t="s">
         <v>223</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
         <v>224</v>
-      </c>
-      <c r="D65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>225</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
@@ -3634,19 +3634,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s">
         <v>226</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
         <v>227</v>
-      </c>
-      <c r="D66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>228</v>
       </c>
       <c r="G66" t="s">
         <v>21</v>
@@ -3666,19 +3666,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s">
         <v>229</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
         <v>230</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>231</v>
       </c>
       <c r="G67" t="s">
         <v>21</v>
@@ -3698,10 +3698,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
         <v>232</v>
-      </c>
-      <c r="C68" t="s">
-        <v>233</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
@@ -3730,10 +3730,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" t="s">
         <v>234</v>
-      </c>
-      <c r="C69" t="s">
-        <v>235</v>
       </c>
       <c r="D69" t="s">
         <v>24</v>
@@ -3762,19 +3762,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
         <v>236</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
         <v>237</v>
-      </c>
-      <c r="D70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>238</v>
       </c>
       <c r="G70" t="s">
         <v>21</v>
@@ -3794,19 +3794,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
         <v>239</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
         <v>240</v>
-      </c>
-      <c r="D71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>241</v>
       </c>
       <c r="G71" t="s">
         <v>21</v>
@@ -3826,19 +3826,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" t="s">
         <v>242</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
         <v>243</v>
-      </c>
-      <c r="D72" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>244</v>
       </c>
       <c r="G72" t="s">
         <v>21</v>
@@ -3858,19 +3858,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" t="s">
         <v>245</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
         <v>246</v>
-      </c>
-      <c r="D73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>247</v>
       </c>
       <c r="G73" t="s">
         <v>21</v>
@@ -3890,10 +3890,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" t="s">
         <v>248</v>
-      </c>
-      <c r="C74" t="s">
-        <v>249</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
@@ -3922,10 +3922,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" t="s">
         <v>250</v>
-      </c>
-      <c r="C75" t="s">
-        <v>251</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
@@ -3954,10 +3954,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
         <v>252</v>
-      </c>
-      <c r="C76" t="s">
-        <v>253</v>
       </c>
       <c r="D76" t="s">
         <v>24</v>
@@ -3986,10 +3986,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" t="s">
         <v>254</v>
-      </c>
-      <c r="C77" t="s">
-        <v>255</v>
       </c>
       <c r="D77" t="s">
         <v>24</v>
@@ -4018,19 +4018,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" t="s">
         <v>256</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
         <v>257</v>
-      </c>
-      <c r="D78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" t="s">
-        <v>258</v>
       </c>
       <c r="G78" t="s">
         <v>21</v>
@@ -4050,28 +4050,28 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" t="s">
         <v>259</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
         <v>260</v>
-      </c>
-      <c r="D79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>261</v>
       </c>
       <c r="G79" t="s">
         <v>53</v>
       </c>
       <c r="H79" t="s">
+        <v>261</v>
+      </c>
+      <c r="I79" t="s">
         <v>262</v>
-      </c>
-      <c r="I79" t="s">
-        <v>263</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -4085,19 +4085,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
         <v>264</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
         <v>265</v>
-      </c>
-      <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="s">
-        <v>266</v>
       </c>
       <c r="G80" t="s">
         <v>21</v>
@@ -4117,19 +4117,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" t="s">
         <v>267</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
         <v>268</v>
-      </c>
-      <c r="D81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" t="s">
-        <v>269</v>
       </c>
       <c r="G81" t="s">
         <v>21</v>
@@ -4149,19 +4149,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" t="s">
         <v>270</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
         <v>271</v>
-      </c>
-      <c r="D82" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>272</v>
       </c>
       <c r="G82" t="s">
         <v>21</v>
@@ -4181,19 +4181,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" t="s">
         <v>273</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
         <v>274</v>
-      </c>
-      <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>275</v>
       </c>
       <c r="G83" t="s">
         <v>21</v>
@@ -4213,19 +4213,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" t="s">
         <v>276</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
         <v>277</v>
-      </c>
-      <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>278</v>
       </c>
       <c r="G84" t="s">
         <v>21</v>
@@ -4245,19 +4245,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" t="s">
         <v>279</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
         <v>280</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>281</v>
       </c>
       <c r="G85" t="s">
         <v>21</v>
@@ -4277,19 +4277,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" t="s">
         <v>282</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
         <v>283</v>
-      </c>
-      <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" t="s">
-        <v>284</v>
       </c>
       <c r="G86" t="s">
         <v>21</v>
@@ -4309,19 +4309,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" t="s">
         <v>285</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
         <v>286</v>
-      </c>
-      <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>287</v>
       </c>
       <c r="G87" t="s">
         <v>21</v>
@@ -4341,25 +4341,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" t="s">
         <v>288</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
         <v>289</v>
-      </c>
-      <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>290</v>
       </c>
       <c r="G88" t="s">
         <v>53</v>
       </c>
       <c r="H88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
@@ -4373,10 +4373,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" t="s">
         <v>292</v>
-      </c>
-      <c r="C89" t="s">
-        <v>293</v>
       </c>
       <c r="D89" t="s">
         <v>24</v>
@@ -4405,10 +4405,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" t="s">
         <v>294</v>
-      </c>
-      <c r="C90" t="s">
-        <v>295</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -4437,19 +4437,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" t="s">
         <v>296</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
         <v>297</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>298</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
@@ -4469,19 +4469,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" t="s">
         <v>299</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
         <v>300</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" t="s">
-        <v>301</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
@@ -4501,10 +4501,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" t="s">
         <v>302</v>
-      </c>
-      <c r="C93" t="s">
-        <v>303</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -4533,10 +4533,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" t="s">
         <v>304</v>
-      </c>
-      <c r="C94" t="s">
-        <v>305</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -4565,19 +4565,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" t="s">
         <v>306</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
         <v>307</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>308</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
@@ -4597,25 +4597,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" t="s">
         <v>309</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
         <v>310</v>
-      </c>
-      <c r="D96" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" t="s">
-        <v>311</v>
       </c>
       <c r="G96" t="s">
         <v>53</v>
       </c>
       <c r="H96" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J96" t="s">
         <v>17</v>
@@ -4629,11 +4629,11 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" t="s">
         <v>313</v>
       </c>
-      <c r="C97" t="s">
-        <v>314</v>
-      </c>
       <c r="D97" t="s">
         <v>24</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G97" t="s">
         <v>21</v>
@@ -4661,11 +4661,11 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" t="s">
         <v>315</v>
       </c>
-      <c r="C98" t="s">
-        <v>316</v>
-      </c>
       <c r="D98" t="s">
         <v>24</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G98" t="s">
         <v>21</v>
@@ -4693,11 +4693,11 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" t="s">
         <v>317</v>
       </c>
-      <c r="C99" t="s">
-        <v>318</v>
-      </c>
       <c r="D99" t="s">
         <v>24</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G99" t="s">
         <v>21</v>
@@ -4725,11 +4725,11 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>318</v>
+      </c>
+      <c r="C100" t="s">
         <v>319</v>
       </c>
-      <c r="C100" t="s">
-        <v>320</v>
-      </c>
       <c r="D100" t="s">
         <v>24</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G100" t="s">
         <v>21</v>
@@ -4757,11 +4757,11 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" t="s">
         <v>321</v>
       </c>
-      <c r="C101" t="s">
-        <v>322</v>
-      </c>
       <c r="D101" t="s">
         <v>24</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G101" t="s">
         <v>21</v>
@@ -4789,11 +4789,11 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" t="s">
         <v>323</v>
       </c>
-      <c r="C102" t="s">
-        <v>324</v>
-      </c>
       <c r="D102" t="s">
         <v>24</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G102" t="s">
         <v>21</v>
@@ -4821,31 +4821,31 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" t="s">
         <v>325</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>324</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>63</v>
+      </c>
+      <c r="K103" t="s">
         <v>326</v>
-      </c>
-      <c r="D103" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
-        <v>325</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" t="s">
-        <v>21</v>
-      </c>
-      <c r="J103" t="s">
-        <v>64</v>
-      </c>
-      <c r="K103" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4853,11 +4853,11 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>327</v>
+      </c>
+      <c r="C104" t="s">
         <v>328</v>
       </c>
-      <c r="C104" t="s">
-        <v>329</v>
-      </c>
       <c r="D104" t="s">
         <v>24</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G104" t="s">
         <v>21</v>
@@ -4885,11 +4885,11 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" t="s">
         <v>330</v>
       </c>
-      <c r="C105" t="s">
-        <v>331</v>
-      </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G105" t="s">
         <v>21</v>
@@ -4917,11 +4917,11 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" t="s">
         <v>332</v>
       </c>
-      <c r="C106" t="s">
-        <v>333</v>
-      </c>
       <c r="D106" t="s">
         <v>24</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G106" t="s">
         <v>21</v>
@@ -4949,11 +4949,11 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" t="s">
         <v>334</v>
       </c>
-      <c r="C107" t="s">
-        <v>335</v>
-      </c>
       <c r="D107" t="s">
         <v>24</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G107" t="s">
         <v>21</v>
@@ -4981,11 +4981,11 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" t="s">
         <v>336</v>
       </c>
-      <c r="C108" t="s">
-        <v>337</v>
-      </c>
       <c r="D108" t="s">
         <v>24</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G108" t="s">
         <v>21</v>
@@ -5013,10 +5013,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" t="s">
         <v>338</v>
-      </c>
-      <c r="C109" t="s">
-        <v>339</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -5025,16 +5025,16 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
+        <v>339</v>
+      </c>
+      <c r="G109" t="s">
         <v>340</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>341</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>342</v>
-      </c>
-      <c r="I109" t="s">
-        <v>343</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>min(age0 + ((dd_incmi - d_recrui)/365.25),age0 + ((dd_incstroke - d_recrui)/365.25),age0 + ((dd_inchf - d_recrui)/365.25) na.rm = TRUE)</t>
+          <t>min(age0 + ((dd_incmi - d_recrui)/365.25),age0 + ((dd_incstroke - d_recrui)/365.25),age0 + ((dd_inchf - d_recrui)/365.25), na.rm = TRUE)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -2439,7 +2439,26 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>min(age0 + ((dd_incmi - d_recrui)/365.25),age0 + ((dd_incstroke - d_recrui)/365.25),age0 + ((dd_inchf - d_recrui)/365.25), na.rm = TRUE)</t>
+          <t>ifelse(is.na(dd_incmi),_x000D_
+                       ifelse(is.na(dd_incstroke), _x000D_
+                              ifelse(is.na(dd_inchf),_x000D_
+                                     NA,_x000D_
+                                     age0 + ((dd_inchf - d_recrui)/365.25)),_x000D_
+                              ifelse(is.na(dd_inchf),_x000D_
+                                     age0 + ((dd_incstroke - d_recrui)/365.25),_x000D_
+                                     as.numeric(min(age0 + ((dd_incstroke - d_recrui)/365.25),_x000D_
+                                                    age0 + ((dd_inchf - d_recrui)/365.25))))),_x000D_
+                       ifelse(is.na(dd_incstroke),_x000D_
+                              ifelse(is.na(dd_inchf),_x000D_
+                                     age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
+                                     as.numeric(min(age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
+                                                    age0 + ((dd_inchf - d_recrui)/365.25)))),_x000D_
+                              ifelse(is.na(dd_inchf),_x000D_
+                                     as.numeric(min(age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
+                                                    age0 + ((dd_incstroke - d_recrui)/365.25))), _x000D_
+                                     as.numeric(min(age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
+                                                    age0 + ((dd_incstroke - d_recrui)/365.25),_x000D_
+                                                    age0 + ((dd_inchf - d_recrui)/365.25)))))</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2805,12 +2824,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>case_when(caseI63_fup5 == 1 ~ 1L,_x000D_
+                          caseI63_fup5 == 0 ~ 0L,_x000D_
+                          is.na(caseI63_fup5) ~ 0L)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2910,12 +2931,14 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>case_when(caseI61_fup5 == 1 ~ 1L,_x000D_
+                          caseI61_fup5 == 0 ~ 0L,_x000D_
+                          is.na(caseI61_fup5) ~ 0L)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4407,7 +4430,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>GJ*4.184</t>
+          <t>GJ/4.184</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -2439,26 +2439,9 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ifelse(is.na(dd_incmi),_x000D_
-                       ifelse(is.na(dd_incstroke), _x000D_
-                              ifelse(is.na(dd_inchf),_x000D_
-                                     NA,_x000D_
-                                     age0 + ((dd_inchf - d_recrui)/365.25)),_x000D_
-                              ifelse(is.na(dd_inchf),_x000D_
-                                     age0 + ((dd_incstroke - d_recrui)/365.25),_x000D_
-                                     as.numeric(min(age0 + ((dd_incstroke - d_recrui)/365.25),_x000D_
-                                                    age0 + ((dd_inchf - d_recrui)/365.25))))),_x000D_
-                       ifelse(is.na(dd_incstroke),_x000D_
-                              ifelse(is.na(dd_inchf),_x000D_
-                                     age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
-                                     as.numeric(min(age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
-                                                    age0 + ((dd_inchf - d_recrui)/365.25)))),_x000D_
-                              ifelse(is.na(dd_inchf),_x000D_
-                                     as.numeric(min(age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
-                                                    age0 + ((dd_incstroke - d_recrui)/365.25))), _x000D_
-                                     as.numeric(min(age0 + ((dd_incmi - d_recrui)/365.25),_x000D_
-                                                    age0 + ((dd_incstroke - d_recrui)/365.25),_x000D_
-                                                    age0 + ((dd_inchf - d_recrui)/365.25)))))</t>
+          <t>as.numeric(pmin(age0 + ((dd_inchf - d_recrui)/365.25),_x000D_
+                     age0 + ((dd_incstroke - d_recrui)/365.25),_x000D_
+                     age0 + ((dd_incmi - d_recrui)/365.25), na.rm = TRUE))</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -1258,34 +1258,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>kinder;ff10</t>
+          <t>kinder</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ifelse(is.na(kinder),_x000D_
-                      ifelse(is.na(ff10),0,0),_x000D_
-                      ifelse(is.na(ff10),kinder, kinder-ff10))</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>number of children minus stillbirths</t>
+          <t>number of children as proxy for number of pregnancies</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -3448,6 +3446,11 @@
           <t>age0 + ((dd_inccanc - d_recrui)/365.25)</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>if inccanc_fup5=1, then take dd_inccanc; if inccanc_fup5 = 0, then take dcens_canc</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>impossible</t>

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -1368,12 +1368,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>corr_trigly/88.57</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -1418,12 +1418,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>corr_chol/38.67</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>corr_chol - corr_hdl</t>
+          <t>(corr_chol - corr_hdl)/38.67</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>corr_hdl/38.67</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,18 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>age0;d_recrui;dd_inccanc</t>
+          <t>age0;d_recrui;dd_inccanc;dcens_canc;inccanc</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>case_when</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>age0 + ((dd_inccanc - d_recrui)/365.25)</t>
+          <t>case_when(inccanc == 1 ~ age0 + ((dd_inccanc - d_recrui)/365.25),_x000D_
+                                           inccanc == 0 ~ age0 + ((dcens_canc - d_recrui)/365.25))</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3453,12 +3454,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -5216,12 +5217,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>direct_mapping</t>
+          <t>MNA*1000</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5231,7 +5232,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
+++ b/rmonize/data_proc_elem/DPE_EPICP_P2.xlsx
@@ -3328,7 +3328,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>inccanc_fup5</t>
+          <t>inccanc</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3449,17 +3449,17 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>if inccanc_fup5=1, then take dd_inccanc; if inccanc_fup5 = 0, then take dcens_canc</t>
+          <t>if inccanc=1, then take dd_inccanc; if inccanc_fup5 = 0, then take dcens_canc</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>proximate</t>
+          <t>compatible</t>
         </is>
       </c>
     </row>
